--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA450BD-E5F6-4669-AAE9-F86D7CBA3789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D01738-1AC1-46CE-807B-D82123494CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="640" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="1010" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -547,41 +547,41 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">商品名：消しゴム
+    <t xml:space="preserve">商品名：テスト商品
 単価：2500円
 在庫数：10
 商品カテゴリ：文房具
-画像：eraser.jpg
+画像：test.jpg
 </t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>タンカ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>エン</t>
     </rPh>
-    <rPh sb="18" eb="21">
+    <rPh sb="19" eb="22">
       <t>ザイコスウ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="26" eb="28">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="32" eb="35">
+    <rPh sb="33" eb="36">
       <t>ブンボウグ</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="37" eb="39">
       <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・担当者ログインが終了している
-・新商品登録（入力画面にて）、入力項目（消しゴム）を入力し、「完了」ボタンが押される</t>
+・新商品登録（入力画面にて）、入力項目（テスト商品）を入力し、「完了」ボタンが押される</t>
     <rPh sb="1" eb="4">
       <t>タントウシャ</t>
     </rPh>
@@ -594,16 +594,16 @@
     <rPh sb="31" eb="35">
       <t>ニュウリョクコウモク</t>
     </rPh>
-    <rPh sb="36" eb="37">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
+    <rPh sb="39" eb="41">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="47" eb="49">
+    <rPh sb="48" eb="50">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="54" eb="55">
+    <rPh sb="55" eb="56">
       <t>オ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -968,39 +968,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1034,12 +1043,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,9 +1096,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1466,25 +1466,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,23 +1499,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1528,50 +1528,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1580,20 +1580,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1603,82 +1603,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="45"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1690,18 +1690,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1713,18 +1713,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1736,18 +1736,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1759,18 +1759,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1782,18 +1782,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1805,20 +1805,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1830,20 +1830,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1855,20 +1855,20 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1880,218 +1880,218 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="24" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="30"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="20" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>8</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>9</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="18">
         <v>10</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A25" s="61">
+      <c r="A25" s="19">
         <v>11</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="61"/>
+      <c r="C25" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="20" t="s">
         <v>53</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2105,28 +2105,30 @@
       <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="29"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H17:L17"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="C25:G25"/>
@@ -2134,12 +2136,6 @@
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C16:G18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H17:L17"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
@@ -2187,6 +2183,10 @@
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C16:G18"/>
+    <mergeCell ref="C26:G26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D01738-1AC1-46CE-807B-D82123494CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A26013-6343-450D-916E-71040C4FBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1010" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>作成者</t>
   </si>
@@ -152,13 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー項目</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -213,89 +206,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「文具/雑貨販売システム」と表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>ブング</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品情報メンテナンス」リンクが表示されている</t>
-    <rPh sb="1" eb="5">
-      <t>ショウヒンジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「アカウント登録」リンクが表示されている</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品カテゴリ登録」リンクが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「購入履歴検索」リンクが表示されている</t>
-    <rPh sb="1" eb="5">
-      <t>コウニュウリレキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>footer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「Fullness Stationery社」と表示されている</t>
-    <rPh sb="20" eb="21">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル以下の表示</t>
-    <rPh sb="4" eb="6">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -309,17 +220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・画面表示項目、入力内容におけるシステムの挙動、画面推移について確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログアウト」ボタンが表示されている</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山崎</t>
     <rPh sb="0" eb="2">
       <t>ヤマサキ</t>
@@ -327,33 +227,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「キャンセル」リンクが表示されている</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「戻る」リンクが表示されている</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「完了」ボタンが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -361,13 +234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>URL直打ち</t>
-    <rPh sb="3" eb="5">
-      <t>ジカウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン前メニュー画面へ遷移すること</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
@@ -391,19 +257,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品検索画面へ遷移</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品カテゴリ登録」リンクを押下</t>
     <rPh sb="1" eb="3">
       <t>ショウヒン</t>
@@ -417,25 +270,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品カテゴリ登録(入力)画面へ遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「アカウント登録」リンクを押下</t>
     <rPh sb="6" eb="8">
       <t>トウロク</t>
@@ -446,10 +280,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録(入力)画面へ遷移</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログアウト」ボタンを押下</t>
     <rPh sb="11" eb="13">
       <t>オウカ</t>
@@ -457,32 +287,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン前メニュー画面へ遷移</t>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新商品登録（確認）画面へ遷移</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「キャンセル」リンクを押下</t>
     <rPh sb="11" eb="13">
       <t>オウカ</t>
@@ -490,29 +294,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品検索画面へ遷移</t>
-    <rPh sb="0" eb="7">
-      <t>ショウヒンケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新商品登録（入力）画面へ遷移</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「戻る」リンクを押下</t>
     <rPh sb="1" eb="2">
       <t>モド</t>
@@ -525,23 +306,6 @@
   <si>
     <t>新商品登録（確認）</t>
     <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「新商品登録(確認)」と表示されている</t>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「新商品登録(確認)」と表示されている</t>
-    <rPh sb="0" eb="1">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -580,8 +344,119 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・担当者ログインが終了している
-・新商品登録（入力画面にて）、入力項目（テスト商品）を入力し、「完了」ボタンが押される</t>
+    <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
+・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「新商品登録(確認）画面」と表示されていること</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「新商品登録(確認)」と表示されていること</t>
+    <rPh sb="0" eb="1">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文具/雑貨販売システム」と表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクが表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクが表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクが表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクが表示されていること</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンが表示されていること</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されていること</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・担当者ログインが終了している
+・新商品登録（入力画面にて）、
+商品名：テスト商品
+単価：2500円
+在庫数：10
+商品カテゴリ：文房具
+画像：test.jpg
+を入力していること
+</t>
     <rPh sb="1" eb="4">
       <t>タントウシャ</t>
     </rPh>
@@ -591,20 +466,139 @@
     <rPh sb="23" eb="27">
       <t>ニュウリョクガメン</t>
     </rPh>
-    <rPh sb="31" eb="35">
-      <t>ニュウリョクコウモク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
+    <rPh sb="83" eb="85">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproduct/confirm」
+を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproduct/confirm」
+を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「キャンセル」リンクが表示されていること</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「戻る」リンクが表示されていること</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「完了」ボタンが表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="48" eb="50">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>オ</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新商品登録（確認）画面へ遷移すること</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新商品登録（入力）画面へ遷移すること</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="7">
+      <t>ショウヒンケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -912,7 +906,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -974,9 +968,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -986,30 +1073,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1028,73 +1091,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1447,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1466,56 +1463,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1527,51 +1524,51 @@
       </c>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:17" ht="145.5" customHeight="1">
+      <c r="A3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
+    </row>
+    <row r="4" spans="1:17" ht="38.5" customHeight="1">
+      <c r="A4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1580,20 +1577,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1603,82 +1600,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="C8" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1690,18 +1687,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1713,18 +1710,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1736,18 +1733,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1759,18 +1756,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1782,378 +1779,400 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:17" ht="11">
+    <row r="14" spans="1:17" ht="57.5" customHeight="1">
       <c r="A14" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25" t="s">
-        <v>31</v>
+      <c r="C14" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" ht="57.5" customHeight="1">
+    <row r="15" spans="1:17" ht="14" customHeight="1">
       <c r="A15" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" ht="14" customHeight="1">
+    <row r="16" spans="1:17" ht="13" customHeight="1">
       <c r="A16" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="49"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="1:17" ht="13" customHeight="1">
+      <c r="P17" s="48"/>
+      <c r="Q17" s="49"/>
+    </row>
+    <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="C18" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="30"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="B19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>8</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>9</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="18">
         <v>10</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="19">
         <v>11</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" ht="13" customHeight="1">
+      <c r="P25" s="20"/>
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
         <v>16</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="B26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17" ht="43.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>16</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="H26:L26"/>
+  <mergeCells count="64">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
@@ -2164,28 +2183,33 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C16:G18"/>
     <mergeCell ref="C26:G26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A26013-6343-450D-916E-71040C4FBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7253F8D0-46D4-4904-9112-A794CE47CD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,7 +906,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,38 +965,95 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,66 +1090,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1446,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:L25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1463,25 +1460,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,23 +1493,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1525,50 +1522,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="145.5" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="38.5" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1577,20 +1574,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1600,82 +1597,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="51"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1687,18 +1684,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1710,18 +1707,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1733,18 +1730,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1756,18 +1753,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1779,18 +1776,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1802,20 +1799,20 @@
         <v>10</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="27" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1827,18 +1824,18 @@
         <v>11</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="23" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1850,66 +1847,66 @@
         <v>12</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="23" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>9</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="23" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1920,233 +1917,281 @@
       <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>8</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>9</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="49"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="18">
         <v>10</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26" t="s">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="18">
         <v>10</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="19">
         <v>11</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="20" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
         <v>16</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="20" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="43.5" customHeight="1">
       <c r="A27" s="6">
         <v>16</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="20" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P16:Q16"/>
@@ -2162,55 +2207,7 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
     <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C26:G26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7253F8D0-46D4-4904-9112-A794CE47CD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AAC65B-AF3D-41CA-98D7-3A44AA5E7C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="178" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="メニュー画面">#REF!</definedName>
@@ -906,7 +907,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,137 +960,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1443,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1460,25 +1455,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,23 +1488,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1522,50 +1517,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="145.5" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="38.5" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1574,14 +1569,14 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="49"/>
@@ -1597,82 +1592,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="38" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1684,18 +1679,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1707,18 +1702,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1730,18 +1725,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1753,18 +1748,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1776,18 +1771,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1796,23 +1791,23 @@
     </row>
     <row r="14" spans="1:17" ht="57.5" customHeight="1">
       <c r="A14" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="38" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1821,21 +1816,21 @@
     </row>
     <row r="15" spans="1:17" ht="14" customHeight="1">
       <c r="A15" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1844,69 +1839,69 @@
     </row>
     <row r="16" spans="1:17" ht="13" customHeight="1">
       <c r="A16" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="26" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1915,235 +1910,283 @@
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
-        <v>6</v>
-      </c>
-      <c r="B19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="40" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
-        <v>7</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="40" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
-        <v>8</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="40" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
-        <v>9</v>
-      </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A23" s="18">
-        <v>10</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A24" s="18">
-        <v>10</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="38" t="s">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A25" s="19">
-        <v>11</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="26" t="s">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="22" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="23"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
-        <v>16</v>
-      </c>
-      <c r="B26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="22" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="43.5" customHeight="1">
       <c r="A27" s="6">
-        <v>16</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="22" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P21:Q21"/>
@@ -2160,58 +2203,23 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B19:B25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DDAF42-9DB9-4C20-A4AF-165AEA941E80}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AAC65B-AF3D-41CA-98D7-3A44AA5E7C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD6D0BC-5DB2-40CB-84FC-EB9F601B7FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新商品登録（入力）画面へ遷移すること</t>
+    <t>新商品登録（入力）画面へ遷移し、セッションが保持されている</t>
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
@@ -591,15 +591,21 @@
     <rPh sb="12" eb="14">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="22" eb="24">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移し、セッションが破棄される</t>
     <rPh sb="0" eb="7">
       <t>ショウヒンケン</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -960,75 +966,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1056,35 +1056,41 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1438,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1455,25 +1461,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,23 +1494,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1517,50 +1523,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="145.5" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="38.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1569,20 +1575,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1592,75 +1598,75 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="24" t="s">
         <v>40</v>
       </c>
@@ -1679,11 +1685,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="24" t="s">
         <v>41</v>
       </c>
@@ -1702,11 +1708,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="24" t="s">
         <v>42</v>
       </c>
@@ -1725,11 +1731,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="24" t="s">
         <v>43</v>
       </c>
@@ -1748,11 +1754,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="24" t="s">
         <v>44</v>
       </c>
@@ -1771,11 +1777,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="24" t="s">
         <v>45</v>
       </c>
@@ -1794,20 +1800,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1819,11 +1825,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="24" t="s">
         <v>51</v>
       </c>
@@ -1842,11 +1848,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="24" t="s">
         <v>52</v>
       </c>
@@ -1857,19 +1863,19 @@
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="24" t="s">
         <v>53</v>
       </c>
@@ -1880,21 +1886,21 @@
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="24" t="s">
         <v>46</v>
       </c>
@@ -1912,7 +1918,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -1922,24 +1928,24 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="24" t="s">
         <v>30</v>
       </c>
@@ -1947,24 +1953,24 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="24" t="s">
         <v>31</v>
       </c>
@@ -1972,99 +1978,99 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-    </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+    </row>
+    <row r="24" spans="1:17" ht="27" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="24" t="s">
         <v>33</v>
       </c>
@@ -2072,73 +2078,121 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="19"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="19"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="18" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="19"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="19"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="43.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="18" t="s">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="19"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="P16:Q16"/>
@@ -2155,54 +2209,6 @@
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="B19:B25"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H23:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD6D0BC-5DB2-40CB-84FC-EB9F601B7FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1278B6A8-158F-4521-B81B-889E1150E406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,112 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproduct/confirm」
+    <t>「キャンセル」リンクが表示されていること</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「戻る」リンクが表示されていること</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「完了」ボタンが表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新商品登録（確認）画面へ遷移すること</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新商品登録（入力）画面へ遷移し、セッションが保持されている</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移し、セッションが破棄される</t>
+    <rPh sb="0" eb="7">
+      <t>ショウヒンケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registerproduct/confirm」
 を入力</t>
     <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
@@ -485,13 +590,13 @@
     <rPh sb="18" eb="20">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="69" eb="71">
+    <rPh sb="75" eb="77">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproduct/confirm」
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registerproduct/confirm」
 を入力</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
@@ -499,113 +604,8 @@
     <rPh sb="19" eb="21">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="70" eb="72">
+    <rPh sb="76" eb="78">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「キャンセル」リンクが表示されていること</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「戻る」リンクが表示されていること</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「完了」ボタンが表示されていること</t>
-    <rPh sb="1" eb="3">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品検索画面へ遷移すること</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録(入力)画面へ遷移すること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新商品登録（確認）画面へ遷移すること</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新商品登録（入力）画面へ遷移し、セッションが保持されている</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品検索画面へ遷移し、セッションが破棄される</t>
-    <rPh sb="0" eb="7">
-      <t>ショウヒンケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -966,131 +966,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1461,25 +1461,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,23 +1494,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1523,50 +1523,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="145.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="38.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1575,20 +1575,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1598,75 +1598,75 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="24" t="s">
         <v>40</v>
       </c>
@@ -1685,11 +1685,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="24" t="s">
         <v>41</v>
       </c>
@@ -1708,11 +1708,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="24" t="s">
         <v>42</v>
       </c>
@@ -1731,11 +1731,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="24" t="s">
         <v>43</v>
       </c>
@@ -1754,11 +1754,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="24" t="s">
         <v>44</v>
       </c>
@@ -1777,11 +1777,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="24" t="s">
         <v>45</v>
       </c>
@@ -1800,20 +1800,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="36" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1825,13 +1825,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -1848,13 +1848,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -1863,21 +1863,21 @@
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
@@ -1886,21 +1886,21 @@
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="24" t="s">
         <v>46</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -1928,24 +1928,24 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="H19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="24" t="s">
         <v>30</v>
       </c>
@@ -1953,24 +1953,24 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="H20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="24" t="s">
         <v>31</v>
       </c>
@@ -1978,99 +1978,99 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="H21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="1:17" ht="27" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="24" t="s">
         <v>33</v>
       </c>
@@ -2078,73 +2078,121 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="21"/>
+      <c r="H25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="20" t="s">
+      <c r="C26" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="21"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="43.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="20" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="21"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P21:Q21"/>
@@ -2161,54 +2209,6 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B19:B25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1278B6A8-158F-4521-B81B-889E1150E406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E5CEC-1619-4314-A628-49AE04DB5892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>作成者</t>
   </si>
@@ -606,6 +606,27 @@
     </rPh>
     <rPh sb="76" eb="78">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -966,75 +987,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1062,35 +1077,41 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1442,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:G27"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1461,25 +1482,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,23 +1515,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1523,50 +1544,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="145.5" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="38.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1575,20 +1596,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1598,75 +1619,75 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="24" t="s">
         <v>40</v>
       </c>
@@ -1685,11 +1706,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="24" t="s">
         <v>41</v>
       </c>
@@ -1708,11 +1729,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="24" t="s">
         <v>42</v>
       </c>
@@ -1731,11 +1752,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="24" t="s">
         <v>43</v>
       </c>
@@ -1754,11 +1775,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="24" t="s">
         <v>44</v>
       </c>
@@ -1777,11 +1798,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="24" t="s">
         <v>45</v>
       </c>
@@ -1800,20 +1821,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1825,11 +1846,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="24" t="s">
         <v>49</v>
       </c>
@@ -1848,11 +1869,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="24" t="s">
         <v>50</v>
       </c>
@@ -1863,19 +1884,19 @@
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="24" t="s">
         <v>51</v>
       </c>
@@ -1886,21 +1907,21 @@
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="24" t="s">
         <v>46</v>
       </c>
@@ -1918,7 +1939,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -1928,24 +1949,24 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="24" t="s">
         <v>30</v>
       </c>
@@ -1953,24 +1974,24 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="24" t="s">
         <v>31</v>
       </c>
@@ -1978,99 +1999,99 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17" ht="27" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="23" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="24" t="s">
         <v>33</v>
       </c>
@@ -2078,121 +2099,101 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="19"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="19"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="18" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="19"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="19"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="43.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="18" t="s">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="19"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
+  <mergeCells count="66">
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P21:Q21"/>
@@ -2209,6 +2210,53 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B19:B25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E5CEC-1619-4314-A628-49AE04DB5892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22266189-9E1D-4960-9AE4-C0A1BCF50A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>作成者</t>
   </si>
@@ -540,19 +540,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新商品登録（確認）画面へ遷移すること</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新商品登録（入力）画面へ遷移し、セッションが保持されている</t>
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
@@ -627,6 +614,99 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像をsizeを100にした</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新商品登録（完了）画面へ遷移すること</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認ボタンになっている（修正済み）</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正済み</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川佳苗</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カナエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン後メニュー画面に遷移してしまう。
+（商品検索画面に遷移するように修正）</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -934,7 +1014,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,65 +1034,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1041,77 +1187,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1465,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1482,25 +1565,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1515,682 +1598,862 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" ht="145.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="102" customHeight="1">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="38.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="24" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="24" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="24" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="11">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="24" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="11">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="24" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" ht="57.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="36" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="14" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="24" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" ht="13" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="24" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="24" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="38" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="38" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="38" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
     </row>
     <row r="24" spans="1:17" ht="27" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-    </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+    </row>
+    <row r="25" spans="1:17" ht="33" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21"/>
+      <c r="M25" s="58">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="20" t="s">
+      <c r="C26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:17" ht="43.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="20" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
     </row>
     <row r="28" spans="1:17" ht="58.5" customHeight="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="17"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2207,56 +2470,6 @@
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B19:B25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22266189-9E1D-4960-9AE4-C0A1BCF50A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FFB04F-FEB2-4AE9-9F4E-5C0360B0D04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -707,6 +707,27 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムエラー画面へ遷移すること</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1061,6 +1082,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1070,35 +1124,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,66 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1548,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25:Q25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1565,25 +1586,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,23 +1619,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1713,24 +1734,24 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="58">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="16">
         <v>45504</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -1739,31 +1760,31 @@
       <c r="O6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="58">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="16">
         <v>45504</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -1772,29 +1793,29 @@
       <c r="O7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="16" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="58">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="16">
         <v>45504</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -1811,19 +1832,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="16" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="58">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="16">
         <v>45504</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -1840,19 +1861,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="58">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="16">
         <v>45504</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -1869,19 +1890,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="16" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="58">
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="16">
         <v>45504</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -1898,19 +1919,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="16" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="58">
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="16">
         <v>45504</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -1927,19 +1948,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="16" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="58">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="16">
         <v>45504</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -1956,21 +1977,21 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="58">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="16">
         <v>45504</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -1989,19 +2010,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="16" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="58">
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="16">
         <v>45504</v>
       </c>
       <c r="N15" s="6" t="s">
@@ -2018,19 +2039,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="16" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="58">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="16">
         <v>45504</v>
       </c>
       <c r="N16" s="6" t="s">
@@ -2039,27 +2060,27 @@
       <c r="O16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="27"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="16" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="58">
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="16">
         <v>45504</v>
       </c>
       <c r="N17" s="6" t="s">
@@ -2068,31 +2089,31 @@
       <c r="O17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="21"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="16" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="58">
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="16">
         <v>45504</v>
       </c>
       <c r="N18" s="6" t="s">
@@ -2108,24 +2129,24 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="25" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="58">
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="16">
         <v>45504</v>
       </c>
       <c r="N19" s="6" t="s">
@@ -2134,29 +2155,29 @@
       <c r="O19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="25" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="58">
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="16">
         <v>45504</v>
       </c>
       <c r="N20" s="6" t="s">
@@ -2165,29 +2186,29 @@
       <c r="O20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="25" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="58">
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="16">
         <v>45504</v>
       </c>
       <c r="N21" s="6" t="s">
@@ -2196,29 +2217,29 @@
       <c r="O21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="28" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="58">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="16">
         <v>45504</v>
       </c>
       <c r="N22" s="6" t="s">
@@ -2227,29 +2248,29 @@
       <c r="O22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="58">
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="16">
         <v>45504</v>
       </c>
       <c r="N23" s="6" t="s">
@@ -2258,29 +2279,29 @@
       <c r="O23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="27" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="28" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="58">
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="16">
         <v>45504</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -2289,29 +2310,29 @@
       <c r="O24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="58">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="16">
         <v>45504</v>
       </c>
       <c r="N25" s="6" t="s">
@@ -2320,140 +2341,108 @@
       <c r="O25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="60" t="s">
+      <c r="P25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="Q25" s="27"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="27"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="43.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="19" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="27"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="58.5" customHeight="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2470,6 +2459,56 @@
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FFB04F-FEB2-4AE9-9F4E-5C0360B0D04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC4EA8E-D702-4B2F-BE66-F7A46B3E52A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,8 +1082,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1094,35 +1109,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1133,88 +1193,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1586,25 +1586,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,23 +1619,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1650,50 +1650,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="102" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="38.5" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1702,20 +1702,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1725,103 +1725,103 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="16">
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="60">
         <v>45504</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="26"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="16">
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="60">
         <v>45504</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="16">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="60">
         <v>45504</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="14"/>
@@ -1832,25 +1832,25 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="16">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="60">
         <v>45504</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P9" s="14"/>
@@ -1861,25 +1861,25 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="16">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="60">
         <v>45504</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P10" s="14"/>
@@ -1890,25 +1890,25 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="16">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="60">
         <v>45504</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P11" s="14"/>
@@ -1919,25 +1919,25 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="16">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="60">
         <v>45504</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P12" s="14"/>
@@ -1948,25 +1948,25 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="16">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="60">
         <v>45504</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P13" s="14"/>
@@ -1977,27 +1977,27 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="16">
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="60">
         <v>45504</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P14" s="14" t="s">
@@ -2010,25 +2010,25 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="27" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="16">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="60">
         <v>45504</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P15" s="14"/>
@@ -2039,87 +2039,87 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="27" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="16">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="60">
         <v>45504</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="27" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="16">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="60">
         <v>45504</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="23"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="27" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="16">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="60">
         <v>45504</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P18" s="14"/>
@@ -2129,313 +2129,313 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="26" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="16">
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="60">
         <v>45504</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="26" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="16">
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="60">
         <v>45504</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="26" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="16">
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="60">
         <v>45504</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="16">
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="60">
         <v>45504</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="26"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="16">
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="60">
         <v>45504</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" ht="27" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="20" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="16">
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="60">
         <v>45504</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="21" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="16">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="60">
         <v>45504</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="34" t="s">
+      <c r="P25" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="Q25" s="25"/>
+      <c r="Q25" s="26"/>
     </row>
     <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="16">
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="60">
         <v>45505</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
     </row>
     <row r="27" spans="1:17" ht="43.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="16">
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="60">
         <v>45505</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="1:17" ht="58.5" customHeight="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="21" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="16">
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="60">
         <v>45505</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="P28" s="14"/>
@@ -2443,6 +2443,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2459,56 +2509,6 @@
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP013新商品登録(確認).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC4EA8E-D702-4B2F-BE66-F7A46B3E52A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303794B1-A9C3-49DC-88A2-A5F60398A13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -722,11 +722,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システムエラー画面へ遷移すること</t>
-    <rPh sb="7" eb="9">
+    <t>そのままの画面へ遷移すること</t>
+    <rPh sb="5" eb="7">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="8" eb="10">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1082,6 +1082,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1091,38 +1124,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,63 +1215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1586,25 +1586,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,23 +1619,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1649,51 +1649,51 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="102" customHeight="1">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:17" ht="126.5" customHeight="1">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="38.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1702,20 +1702,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1725,33 +1725,33 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="60">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="16">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1760,31 +1760,31 @@
       <c r="O6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="29"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="60">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="16">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1793,29 +1793,29 @@
       <c r="O7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="16" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="60">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="16">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1832,19 +1832,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="16" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="60">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="16">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1861,19 +1861,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="60">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="16">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1890,19 +1890,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="16" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="60">
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="16">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1919,19 +1919,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="16" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="60">
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="16">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1948,19 +1948,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="16" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="60">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="16">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -1977,21 +1977,21 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="60">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="16">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -2010,19 +2010,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="16" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="60">
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="16">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2039,19 +2039,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="16" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="60">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="16">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2060,27 +2060,27 @@
       <c r="O16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="16" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="60">
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="16">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2089,31 +2089,31 @@
       <c r="O17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="21"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="16" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="60">
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="16">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2129,24 +2129,24 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="60">
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="16">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2155,29 +2155,29 @@
       <c r="O19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="60">
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="16">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2186,29 +2186,29 @@
       <c r="O20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="60">
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="16">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2217,29 +2217,29 @@
       <c r="O21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="28" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="60">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="16">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2248,29 +2248,29 @@
       <c r="O22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="60">
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="16">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2279,29 +2279,29 @@
       <c r="O23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="27" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="28" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="60">
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="16">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2310,29 +2310,29 @@
       <c r="O24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="60">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="16">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2341,33 +2341,33 @@
       <c r="O25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="59" t="s">
+      <c r="P25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="43.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="19" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="60">
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="16">
         <v>45505</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2376,29 +2376,29 @@
       <c r="O26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="43.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="19" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="60">
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="16">
         <v>45505</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2407,29 +2407,29 @@
       <c r="O27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="58.5" customHeight="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="60">
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="16">
         <v>45505</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2443,6 +2443,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
@@ -2459,56 +2509,6 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="C14:G17"/>
     <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
